--- a/200_MELCDL_RUN.xlsx
+++ b/200_MELCDL_RUN.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,37 +557,52 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>NTOP</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MTOP</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Unfactored ULD</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>ULD</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>LDR</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>LDR Ice</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Vapp</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>VREF</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>VREF ICE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>OEI Gradient</t>
         </is>
       </c>
     </row>
@@ -668,7 +683,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>EXTENDED DOOR OPEN</t>
+          <t>Extended Door Open</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -680,25 +695,34 @@
         </is>
       </c>
       <c r="X2" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>107</v>
+      </c>
+      <c r="Z2" t="n">
         <v>424</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>458</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>654</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>612</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>90</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>83</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>88</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="3">
@@ -778,7 +802,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>INOP1 (NWS)</t>
+          <t>INOP1</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -790,54 +814,61 @@
         </is>
       </c>
       <c r="X3" t="n">
+        <v>95.72</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>103.84</v>
+      </c>
+      <c r="Z3" t="n">
         <v>472</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>592</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>972</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>857</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>109</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>95</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>105</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F4" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -845,145 +876,154 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>1024</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>14628</v>
+        <v>14996</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>-309</v>
+        <v>1556</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>EXTENDED DOOR OPEN</t>
+          <t>INOP (A/S)</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>15650(c)^</t>
+        <v>1.45</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="X4" t="n">
-        <v>463</v>
+        <v>97.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>579</v>
+        <v>107.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>827</v>
+        <v>533</v>
       </c>
       <c r="AA4" t="n">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="AB4" t="n">
-        <v>97</v>
+        <v>1311</v>
       </c>
       <c r="AC4" t="n">
-        <v>90</v>
+        <v>1302</v>
       </c>
       <c r="AD4" t="n">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YLHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Lord Howe Island</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>785</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grooved</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>270</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1005</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>15088</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="n">
         <v>35</v>
       </c>
-      <c r="E5" t="n">
-        <v>1886</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2683</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>350</v>
-      </c>
-      <c r="J5" t="n">
-        <v>20</v>
-      </c>
-      <c r="K5" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" t="n">
-        <v>14</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1024</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>14996</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>15</v>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -992,68 +1032,77 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1556</v>
+        <v>257</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>INOP (A/S)</t>
+          <t>INOP1 (NWS)</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>15650(s)</t>
+          <t>15650(c)</t>
         </is>
       </c>
       <c r="X5" t="n">
-        <v>533</v>
+        <v>97.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>798</v>
+        <v>107.45</v>
       </c>
       <c r="Z5" t="n">
-        <v>1311</v>
+        <v>469</v>
       </c>
       <c r="AA5" t="n">
-        <v>1302</v>
+        <v>495</v>
       </c>
       <c r="AB5" t="n">
-        <v>108</v>
+        <v>707</v>
       </c>
       <c r="AC5" t="n">
-        <v>100</v>
+        <v>671</v>
       </c>
       <c r="AD5" t="n">
-        <v>110</v>
+        <v>99</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>92</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>97</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YBCS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Cairns</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>1886</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>2683</v>
+        <v>3156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1061,30 +1110,30 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>330</v>
+        <v>96</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1019</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>14444</v>
+        <v>12880</v>
       </c>
       <c r="P6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
         <v>35</v>
@@ -1100,88 +1149,99 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1706</v>
+        <v>-170</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>INOP1 (NWS)</t>
+          <t>Extended Door Closed</t>
         </is>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>15650(c)*^</t>
         </is>
       </c>
       <c r="X6" t="n">
-        <v>472</v>
+        <v>97.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>556</v>
+        <v>107.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>794</v>
+        <v>437</v>
       </c>
       <c r="AA6" t="n">
-        <v>692</v>
+        <v>503</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>826</v>
       </c>
       <c r="AC6" t="n">
-        <v>89</v>
+        <v>729</v>
       </c>
       <c r="AD6" t="n">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>86</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>91</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YMAY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>23</v>
+          <t>Albury</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>3556</v>
+        <v>539</v>
       </c>
       <c r="F7" t="n">
-        <v>1738</v>
+        <v>1900</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="L7" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1189,7 +1249,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>11500</v>
+        <v>14168</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1208,68 +1268,79 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3646</v>
+        <v>1079</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>EXTENDED DOOR OPEN</t>
+          <t>Extended Door Open</t>
         </is>
       </c>
       <c r="V7" t="n">
         <v>1</v>
       </c>
-      <c r="W7" s="2" t="inlineStr">
-        <is>
-          <t>14400(c)^</t>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="X7" t="n">
-        <v>471</v>
+        <v>97.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>520</v>
+        <v>107.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>742</v>
+        <v>502</v>
       </c>
       <c r="AA7" t="n">
-        <v>771</v>
+        <v>605</v>
       </c>
       <c r="AB7" t="n">
-        <v>93</v>
+        <v>864</v>
       </c>
       <c r="AC7" t="n">
-        <v>88</v>
+        <v>907</v>
       </c>
       <c r="AD7" t="n">
+        <v>103</v>
+      </c>
+      <c r="AE7" t="n">
         <v>98</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>108</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>YLHI</t>
+          <t>YMAY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>28</v>
+          <t>Albury</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>539</v>
       </c>
       <c r="F8" t="n">
-        <v>785</v>
+        <v>1900</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1277,30 +1348,30 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L8" t="n">
+        <v>23</v>
+      </c>
+      <c r="M8" t="n">
+        <v>990</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Wet</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>13708</v>
+      </c>
+      <c r="P8" t="n">
         <v>15</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1001</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>15456</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
       </c>
       <c r="Q8" t="n">
         <v>35</v>
@@ -1316,11 +1387,11 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>377</v>
+        <v>1229</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>EXTENDED DOOR CLOSED</t>
+          <t>INOP</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1332,103 +1403,114 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>474</v>
+        <v>97.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>526</v>
+        <v>107.31</v>
       </c>
       <c r="Z8" t="n">
-        <v>751</v>
+        <v>453</v>
       </c>
       <c r="AA8" t="n">
-        <v>744</v>
+        <v>682</v>
       </c>
       <c r="AB8" t="n">
-        <v>97</v>
+        <v>1120</v>
       </c>
       <c r="AC8" t="n">
-        <v>92</v>
+        <v>898</v>
       </c>
       <c r="AD8" t="n">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>88</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>93</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>YLHI</t>
+          <t>YPLC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lord Howe Island</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>28</v>
+          <t>Port Lincoln</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>785</v>
+        <v>1499</v>
       </c>
       <c r="G9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ungrooved</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>186</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1011</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>15180</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>270</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="Q9" t="n">
         <v>15</v>
       </c>
-      <c r="K9" t="n">
-        <v>15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>17</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1005</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>15088</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>35</v>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>INOP1 (NWS)</t>
+          <t>INOP1</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1436,793 +1518,38 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>15650(c)</t>
+          <t>15650(s)</t>
         </is>
       </c>
       <c r="X9" t="n">
-        <v>469</v>
+        <v>97.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>495</v>
+        <v>107.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>707</v>
+        <v>518</v>
       </c>
       <c r="AA9" t="n">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="AB9" t="n">
-        <v>99</v>
+        <v>857</v>
       </c>
       <c r="AC9" t="n">
-        <v>92</v>
+        <v>994</v>
       </c>
       <c r="AD9" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>YORG</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>29</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3112</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2213</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>55</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>27</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1021</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>14000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>15</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>2872</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>EXTENDED DOOR CLOSED</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>14620(c)</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>523</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>671</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1102</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1156</v>
-      </c>
-      <c r="AB10" t="n">
+        <v>112</v>
+      </c>
+      <c r="AE9" t="n">
         <v>102</v>
       </c>
-      <c r="AC10" t="n">
-        <v>97</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>YBCS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Cairns</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>15</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3156</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>326</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>993</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>15272</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>35</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>610</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>INOP (A/S)</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="X11" t="n">
-        <v>472</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>769</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1148</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1263</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>97</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>92</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>22</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>YBCS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Cairns</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3156</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>96</v>
-      </c>
-      <c r="J12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1019</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>12880</v>
-      </c>
-      <c r="P12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>35</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>-170</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>EXTENDED DOOR CLOSED</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="2" t="inlineStr">
-        <is>
-          <t>15650(c)^</t>
-        </is>
-      </c>
-      <c r="X12" t="n">
-        <v>437</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>503</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>826</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>729</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>86</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>24</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>YMAY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Albury</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>539</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>221</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>995</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>14168</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>15</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>1079</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>EXTENDED DOOR OPEN</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>14400(c)</t>
-        </is>
-      </c>
-      <c r="X13" t="n">
-        <v>502</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>605</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>864</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>907</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>98</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>25</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>YMAY</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Albury</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>539</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>211</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>23</v>
-      </c>
-      <c r="M14" t="n">
-        <v>990</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>13708</v>
-      </c>
-      <c r="P14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>35</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>1229</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>INOP1 (NWS)</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="X14" t="n">
-        <v>453</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>682</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1120</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>898</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>88</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>26</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>YPLC</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Port Lincoln</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>36</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1499</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>186</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1011</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>15180</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>15</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>96</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>INOP (A/S)</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>15650(s)</t>
-        </is>
-      </c>
-      <c r="X15" t="n">
-        <v>518</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1009</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1242</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1441</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AF9" t="n">
         <v>112</v>
       </c>
-      <c r="AC15" t="n">
-        <v>102</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>28</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>YPLC</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Port Lincoln</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>36</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1499</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>20</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>991</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>12880</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>35</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>696</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>EXTENDED DOOR CLOSED</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>15650(c)</t>
-        </is>
-      </c>
-      <c r="X16" t="n">
-        <v>437</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>457</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>750</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>737</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>91</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>86</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>91</v>
+      <c r="AG9" t="n">
+        <v>5.41</v>
       </c>
     </row>
   </sheetData>
